--- a/map.xlsx
+++ b/map.xlsx
@@ -61,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -210,58 +210,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,185 +578,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="3">
+      <c r="B1" s="18">
         <v>0.2</v>
       </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18">
         <v>0.2</v>
       </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3">
+      <c r="F1" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G1" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="I1" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K1" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L1" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="M1" s="18">
         <v>0.2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:14" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18">
         <v>0.2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="170.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="56.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18">
         <v>0.2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" ht="2.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18">
         <v>0.2</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="56.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="5.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
         <v>0.2</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="3"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>